--- a/individual_case_outputs/avey/290.xlsx
+++ b/individual_case_outputs/avey/290.xlsx
@@ -617,7 +617,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>prostate cancer</t>
+          <t>acute prostatitis</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>urologic cancer</t>
+          <t>bladder cancer</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -726,57 +726,57 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
+          <t>nephrolithiasis</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>bladder infection (uti)</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>cystitis</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>multiple myeloma</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>interstitial cystitis</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>heart failure</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>prostate cancer</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>prostate cancer</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>prostate cancer</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>prostate cancer</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
           <t>renal cell carcinoma</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>bladder infection (uti)</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>cystitis</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>multiple myeloma</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>interstitial cystitis</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>heart failure</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>prostate cancer</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>prostate cancer</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>prostate cancer</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>prostate cancer</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>bladder cancer</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -865,7 +865,7 @@
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr">
         <is>
-          <t>renal cell carcinoma</t>
+          <t>benign prostatic hyperplasia</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>bladder cancer</t>
+          <t>bladder stone</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -942,7 +942,7 @@
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr">
         <is>
-          <t>benign prostatic hyperplasia</t>
+          <t>prostate cancer</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1015,7 +1015,7 @@
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr">
         <is>
-          <t>prostate cancer</t>
+          <t>red discoloration of urine x due to food or drugs</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1062,11 +1062,7 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>red discoloration of urine x due to food or drugs</t>
-        </is>
-      </c>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
           <t>red discoloration of urine x due to food or drugs</t>
